--- a/results/lp30/Bayesian-MCMC/Symbolic/best_fit.xlsx
+++ b/results/lp30/Bayesian-MCMC/Symbolic/best_fit.xlsx
@@ -1404,10 +1404,10 @@
         <v>0.991</v>
       </c>
       <c r="D2" t="n">
-        <v>0.979</v>
+        <v>0.98</v>
       </c>
       <c r="E2" t="n">
-        <v>0.964</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="3">
@@ -1418,13 +1418,13 @@
         <v>0.997</v>
       </c>
       <c r="C3" t="n">
-        <v>0.986</v>
+        <v>0.987</v>
       </c>
       <c r="D3" t="n">
-        <v>0.97</v>
+        <v>0.971</v>
       </c>
       <c r="E3" t="n">
-        <v>0.947</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4">
@@ -1432,16 +1432,16 @@
         <v>300</v>
       </c>
       <c r="B4" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="C4" t="n">
-        <v>0.977</v>
+        <v>0.979</v>
       </c>
       <c r="D4" t="n">
-        <v>0.95</v>
+        <v>0.954</v>
       </c>
       <c r="E4" t="n">
-        <v>0.915</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="5">
@@ -1449,16 +1449,16 @@
         <v>250</v>
       </c>
       <c r="B5" t="n">
-        <v>0.992</v>
+        <v>0.993</v>
       </c>
       <c r="C5" t="n">
-        <v>0.969</v>
+        <v>0.972</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.885</v>
+        <v>0.897</v>
       </c>
     </row>
     <row r="6">
@@ -1466,16 +1466,16 @@
         <v>200</v>
       </c>
       <c r="B6" t="n">
-        <v>0.988</v>
+        <v>0.99</v>
       </c>
       <c r="C6" t="n">
-        <v>0.954</v>
+        <v>0.96</v>
       </c>
       <c r="D6" t="n">
-        <v>0.902</v>
+        <v>0.913</v>
       </c>
       <c r="E6" t="n">
-        <v>0.836</v>
+        <v>0.856</v>
       </c>
     </row>
     <row r="7">
@@ -1483,16 +1483,16 @@
         <v>180</v>
       </c>
       <c r="B7" t="n">
-        <v>0.986</v>
+        <v>0.988</v>
       </c>
       <c r="C7" t="n">
-        <v>0.945</v>
+        <v>0.952</v>
       </c>
       <c r="D7" t="n">
-        <v>0.883</v>
+        <v>0.898</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="8">
@@ -1500,16 +1500,16 @@
         <v>160</v>
       </c>
       <c r="B8" t="n">
-        <v>0.982</v>
+        <v>0.985</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.858</v>
+        <v>0.878</v>
       </c>
       <c r="E8" t="n">
-        <v>0.769</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9">
@@ -1517,16 +1517,16 @@
         <v>140</v>
       </c>
       <c r="B9" t="n">
-        <v>0.978</v>
+        <v>0.981</v>
       </c>
       <c r="C9" t="n">
-        <v>0.915</v>
+        <v>0.928</v>
       </c>
       <c r="D9" t="n">
-        <v>0.824</v>
+        <v>0.85</v>
       </c>
       <c r="E9" t="n">
-        <v>0.72</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="10">
@@ -1534,16 +1534,16 @@
         <v>120</v>
       </c>
       <c r="B10" t="n">
-        <v>0.97</v>
+        <v>0.976</v>
       </c>
       <c r="C10" t="n">
-        <v>0.889</v>
+        <v>0.908</v>
       </c>
       <c r="D10" t="n">
-        <v>0.776</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>0.654</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="11">
@@ -1551,16 +1551,16 @@
         <v>100</v>
       </c>
       <c r="B11" t="n">
-        <v>0.959</v>
+        <v>0.966</v>
       </c>
       <c r="C11" t="n">
-        <v>0.85</v>
+        <v>0.876</v>
       </c>
       <c r="D11" t="n">
-        <v>0.707</v>
+        <v>0.753</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="12">
@@ -1568,16 +1568,16 @@
         <v>80</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="C12" t="n">
-        <v>0.784</v>
+        <v>0.822</v>
       </c>
       <c r="D12" t="n">
-        <v>0.605</v>
+        <v>0.664</v>
       </c>
       <c r="E12" t="n">
-        <v>0.451</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="13">
@@ -1585,16 +1585,16 @@
         <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>0.896</v>
+        <v>0.917</v>
       </c>
       <c r="C13" t="n">
-        <v>0.668</v>
+        <v>0.725</v>
       </c>
       <c r="D13" t="n">
-        <v>0.455</v>
+        <v>0.525</v>
       </c>
       <c r="E13" t="n">
-        <v>0.311</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="14">
@@ -1602,16 +1602,16 @@
         <v>50</v>
       </c>
       <c r="B14" t="n">
-        <v>0.857</v>
+        <v>0.886</v>
       </c>
       <c r="C14" t="n">
-        <v>0.579</v>
+        <v>0.645</v>
       </c>
       <c r="D14" t="n">
-        <v>0.363</v>
+        <v>0.431</v>
       </c>
       <c r="E14" t="n">
-        <v>0.237</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="15">
@@ -1619,16 +1619,16 @@
         <v>40</v>
       </c>
       <c r="B15" t="n">
-        <v>0.791</v>
+        <v>0.834</v>
       </c>
       <c r="C15" t="n">
-        <v>0.46</v>
+        <v>0.534</v>
       </c>
       <c r="D15" t="n">
-        <v>0.264</v>
+        <v>0.323</v>
       </c>
       <c r="E15" t="n">
-        <v>0.166</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="16">
@@ -1636,16 +1636,16 @@
         <v>30</v>
       </c>
       <c r="B16" t="n">
-        <v>0.675</v>
+        <v>0.736</v>
       </c>
       <c r="C16" t="n">
-        <v>0.316</v>
+        <v>0.384</v>
       </c>
       <c r="D16" t="n">
-        <v>0.167</v>
+        <v>0.21</v>
       </c>
       <c r="E16" t="n">
-        <v>0.101</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="17">
@@ -1653,16 +1653,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="n">
-        <v>0.465</v>
+        <v>0.542</v>
       </c>
       <c r="C17" t="n">
-        <v>0.168</v>
+        <v>0.212</v>
       </c>
       <c r="D17" t="n">
-        <v>0.082</v>
+        <v>0.106</v>
       </c>
       <c r="E17" t="n">
-        <v>0.048</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="18">
@@ -1670,16 +1670,16 @@
         <v>10</v>
       </c>
       <c r="B18" t="n">
-        <v>0.169</v>
+        <v>0.213</v>
       </c>
       <c r="C18" t="n">
-        <v>0.048</v>
+        <v>0.063</v>
       </c>
       <c r="D18" t="n">
-        <v>0.022</v>
+        <v>0.029</v>
       </c>
       <c r="E18" t="n">
-        <v>0.012</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="19">
@@ -1704,16 +1704,16 @@
         <v>-10</v>
       </c>
       <c r="B20" t="n">
-        <v>0.168</v>
+        <v>0.213</v>
       </c>
       <c r="C20" t="n">
-        <v>0.048</v>
+        <v>0.063</v>
       </c>
       <c r="D20" t="n">
-        <v>0.022</v>
+        <v>0.029</v>
       </c>
       <c r="E20" t="n">
-        <v>0.012</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="21">
@@ -1721,16 +1721,16 @@
         <v>-20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.464</v>
+        <v>0.539</v>
       </c>
       <c r="C21" t="n">
-        <v>0.167</v>
+        <v>0.211</v>
       </c>
       <c r="D21" t="n">
-        <v>0.082</v>
+        <v>0.106</v>
       </c>
       <c r="E21" t="n">
-        <v>0.048</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="22">
@@ -1738,16 +1738,16 @@
         <v>-30</v>
       </c>
       <c r="B22" t="n">
-        <v>0.672</v>
+        <v>0.732</v>
       </c>
       <c r="C22" t="n">
-        <v>0.314</v>
+        <v>0.379</v>
       </c>
       <c r="D22" t="n">
-        <v>0.166</v>
+        <v>0.208</v>
       </c>
       <c r="E22" t="n">
-        <v>0.101</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="23">
@@ -1755,16 +1755,16 @@
         <v>-40</v>
       </c>
       <c r="B23" t="n">
-        <v>0.787</v>
+        <v>0.828</v>
       </c>
       <c r="C23" t="n">
-        <v>0.455</v>
+        <v>0.524</v>
       </c>
       <c r="D23" t="n">
-        <v>0.26</v>
+        <v>0.316</v>
       </c>
       <c r="E23" t="n">
-        <v>0.164</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="24">
@@ -1772,16 +1772,16 @@
         <v>-50</v>
       </c>
       <c r="B24" t="n">
-        <v>0.852</v>
+        <v>0.879</v>
       </c>
       <c r="C24" t="n">
-        <v>0.569</v>
+        <v>0.63</v>
       </c>
       <c r="D24" t="n">
-        <v>0.355</v>
+        <v>0.418</v>
       </c>
       <c r="E24" t="n">
-        <v>0.233</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="25">
@@ -1789,16 +1789,16 @@
         <v>-60</v>
       </c>
       <c r="B25" t="n">
-        <v>0.89</v>
+        <v>0.908</v>
       </c>
       <c r="C25" t="n">
-        <v>0.654</v>
+        <v>0.704</v>
       </c>
       <c r="D25" t="n">
-        <v>0.442</v>
+        <v>0.504</v>
       </c>
       <c r="E25" t="n">
-        <v>0.302</v>
+        <v>0.358</v>
       </c>
     </row>
     <row r="26">
@@ -1806,16 +1806,16 @@
         <v>-80</v>
       </c>
       <c r="B26" t="n">
-        <v>0.929</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.76</v>
+        <v>0.788</v>
       </c>
       <c r="D26" t="n">
-        <v>0.577</v>
+        <v>0.623</v>
       </c>
       <c r="E26" t="n">
-        <v>0.428</v>
+        <v>0.483</v>
       </c>
     </row>
     <row r="27">
@@ -1823,16 +1823,16 @@
         <v>-100</v>
       </c>
       <c r="B27" t="n">
-        <v>0.946</v>
+        <v>0.948</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.826</v>
       </c>
       <c r="D27" t="n">
-        <v>0.661</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>0.524</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="28">
@@ -1840,16 +1840,16 @@
         <v>-120</v>
       </c>
       <c r="B28" t="n">
-        <v>0.953</v>
+        <v>0.95</v>
       </c>
       <c r="C28" t="n">
-        <v>0.841</v>
+        <v>0.84</v>
       </c>
       <c r="D28" t="n">
-        <v>0.71</v>
+        <v>0.724</v>
       </c>
       <c r="E28" t="n">
-        <v>0.59</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="29">
@@ -1857,16 +1857,16 @@
         <v>-140</v>
       </c>
       <c r="B29" t="n">
-        <v>0.954</v>
+        <v>0.947</v>
       </c>
       <c r="C29" t="n">
-        <v>0.849</v>
+        <v>0.84</v>
       </c>
       <c r="D29" t="n">
-        <v>0.735</v>
+        <v>0.738</v>
       </c>
       <c r="E29" t="n">
-        <v>0.631</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="30">
@@ -1874,16 +1874,16 @@
         <v>-160</v>
       </c>
       <c r="B30" t="n">
-        <v>0.949</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.846</v>
+        <v>0.83</v>
       </c>
       <c r="D30" t="n">
-        <v>0.744</v>
+        <v>0.739</v>
       </c>
       <c r="E30" t="n">
-        <v>0.656</v>
+        <v>0.666</v>
       </c>
     </row>
     <row r="31">
@@ -1891,16 +1891,16 @@
         <v>-170</v>
       </c>
       <c r="B31" t="n">
-        <v>0.945</v>
+        <v>0.931</v>
       </c>
       <c r="C31" t="n">
-        <v>0.84</v>
+        <v>0.822</v>
       </c>
       <c r="D31" t="n">
-        <v>0.744</v>
+        <v>0.737</v>
       </c>
       <c r="E31" t="n">
-        <v>0.663</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="32">
@@ -1908,16 +1908,16 @@
         <v>-180</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.923</v>
       </c>
       <c r="C32" t="n">
-        <v>0.831</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.742</v>
+        <v>0.734</v>
       </c>
       <c r="E32" t="n">
-        <v>0.668</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="33">
@@ -1925,16 +1925,16 @@
         <v>-190</v>
       </c>
       <c r="B33" t="n">
-        <v>0.929</v>
+        <v>0.913</v>
       </c>
       <c r="C33" t="n">
-        <v>0.821</v>
+        <v>0.801</v>
       </c>
       <c r="D33" t="n">
-        <v>0.738</v>
+        <v>0.73</v>
       </c>
       <c r="E33" t="n">
-        <v>0.671</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="34">
@@ -1942,16 +1942,16 @@
         <v>-200</v>
       </c>
       <c r="B34" t="n">
-        <v>0.918</v>
+        <v>0.9</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D34" t="n">
-        <v>0.733</v>
+        <v>0.725</v>
       </c>
       <c r="E34" t="n">
-        <v>0.673</v>
+        <v>0.677</v>
       </c>
     </row>
     <row r="35">
@@ -1959,16 +1959,16 @@
         <v>-210</v>
       </c>
       <c r="B35" t="n">
-        <v>0.904</v>
+        <v>0.887</v>
       </c>
       <c r="C35" t="n">
-        <v>0.795</v>
+        <v>0.779</v>
       </c>
       <c r="D35" t="n">
-        <v>0.727</v>
+        <v>0.721</v>
       </c>
       <c r="E35" t="n">
-        <v>0.675</v>
+        <v>0.678</v>
       </c>
     </row>
     <row r="36">
@@ -1976,16 +1976,16 @@
         <v>-220</v>
       </c>
       <c r="B36" t="n">
-        <v>0.886</v>
+        <v>0.872</v>
       </c>
       <c r="C36" t="n">
-        <v>0.781</v>
+        <v>0.769</v>
       </c>
       <c r="D36" t="n">
-        <v>0.722</v>
+        <v>0.717</v>
       </c>
       <c r="E36" t="n">
-        <v>0.676</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="37">
@@ -1993,16 +1993,16 @@
         <v>-230</v>
       </c>
       <c r="B37" t="n">
-        <v>0.867</v>
+        <v>0.859</v>
       </c>
       <c r="C37" t="n">
-        <v>0.768</v>
+        <v>0.761</v>
       </c>
       <c r="D37" t="n">
-        <v>0.717</v>
+        <v>0.715</v>
       </c>
       <c r="E37" t="n">
-        <v>0.677</v>
+        <v>0.681</v>
       </c>
     </row>
     <row r="38">
@@ -2010,16 +2010,16 @@
         <v>-240</v>
       </c>
       <c r="B38" t="n">
-        <v>0.847</v>
+        <v>0.848</v>
       </c>
       <c r="C38" t="n">
-        <v>0.758</v>
+        <v>0.755</v>
       </c>
       <c r="D38" t="n">
-        <v>0.714</v>
+        <v>0.713</v>
       </c>
       <c r="E38" t="n">
-        <v>0.679</v>
+        <v>0.6830000000000001</v>
       </c>
     </row>
     <row r="39">
@@ -2027,16 +2027,16 @@
         <v>-250</v>
       </c>
       <c r="B39" t="n">
-        <v>0.832</v>
+        <v>0.843</v>
       </c>
       <c r="C39" t="n">
-        <v>0.751</v>
+        <v>0.753</v>
       </c>
       <c r="D39" t="n">
-        <v>0.713</v>
+        <v>0.714</v>
       </c>
       <c r="E39" t="n">
-        <v>0.681</v>
+        <v>0.6860000000000001</v>
       </c>
     </row>
     <row r="40">
@@ -2044,16 +2044,16 @@
         <v>-260</v>
       </c>
       <c r="B40" t="n">
-        <v>0.827</v>
+        <v>0.845</v>
       </c>
       <c r="C40" t="n">
-        <v>0.75</v>
+        <v>0.755</v>
       </c>
       <c r="D40" t="n">
-        <v>0.714</v>
+        <v>0.716</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.6889999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -2061,16 +2061,16 @@
         <v>-266</v>
       </c>
       <c r="B41" t="n">
-        <v>0.829</v>
+        <v>0.849</v>
       </c>
       <c r="C41" t="n">
-        <v>0.752</v>
+        <v>0.758</v>
       </c>
       <c r="D41" t="n">
-        <v>0.716</v>
+        <v>0.719</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.6919999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -2078,16 +2078,16 @@
         <v>-270</v>
       </c>
       <c r="B42" t="n">
-        <v>0.833</v>
+        <v>0.853</v>
       </c>
       <c r="C42" t="n">
-        <v>0.754</v>
+        <v>0.76</v>
       </c>
       <c r="D42" t="n">
-        <v>0.718</v>
+        <v>0.721</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6929999999999999</v>
       </c>
     </row>
     <row r="43">
@@ -2095,16 +2095,16 @@
         <v>-280</v>
       </c>
       <c r="B43" t="n">
-        <v>0.849</v>
+        <v>0.866</v>
       </c>
       <c r="C43" t="n">
-        <v>0.763</v>
+        <v>0.769</v>
       </c>
       <c r="D43" t="n">
-        <v>0.725</v>
+        <v>0.727</v>
       </c>
       <c r="E43" t="n">
-        <v>0.695</v>
+        <v>0.699</v>
       </c>
     </row>
     <row r="44">
@@ -2112,16 +2112,16 @@
         <v>-290</v>
       </c>
       <c r="B44" t="n">
-        <v>0.869</v>
+        <v>0.881</v>
       </c>
       <c r="C44" t="n">
-        <v>0.776</v>
+        <v>0.781</v>
       </c>
       <c r="D44" t="n">
-        <v>0.733</v>
+        <v>0.735</v>
       </c>
       <c r="E44" t="n">
-        <v>0.702</v>
+        <v>0.705</v>
       </c>
     </row>
     <row r="45">
@@ -2129,16 +2129,16 @@
         <v>-300</v>
       </c>
       <c r="B45" t="n">
-        <v>0.89</v>
+        <v>0.896</v>
       </c>
       <c r="C45" t="n">
-        <v>0.792</v>
+        <v>0.794</v>
       </c>
       <c r="D45" t="n">
         <v>0.744</v>
       </c>
       <c r="E45" t="n">
-        <v>0.711</v>
+        <v>0.712</v>
       </c>
     </row>
     <row r="46">
@@ -2146,13 +2146,13 @@
         <v>-310</v>
       </c>
       <c r="B46" t="n">
-        <v>0.909</v>
+        <v>0.91</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.756</v>
+        <v>0.754</v>
       </c>
       <c r="E46" t="n">
         <v>0.72</v>
@@ -2163,16 +2163,16 @@
         <v>-320</v>
       </c>
       <c r="B47" t="n">
-        <v>0.924</v>
+        <v>0.922</v>
       </c>
       <c r="C47" t="n">
-        <v>0.827</v>
+        <v>0.823</v>
       </c>
       <c r="D47" t="n">
-        <v>0.769</v>
+        <v>0.765</v>
       </c>
       <c r="E47" t="n">
-        <v>0.73</v>
+        <v>0.728</v>
       </c>
     </row>
     <row r="48">
@@ -2180,16 +2180,16 @@
         <v>-330</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.844</v>
+        <v>0.838</v>
       </c>
       <c r="D48" t="n">
-        <v>0.782</v>
+        <v>0.777</v>
       </c>
       <c r="E48" t="n">
-        <v>0.74</v>
+        <v>0.737</v>
       </c>
     </row>
     <row r="49">
@@ -2197,16 +2197,16 @@
         <v>-340</v>
       </c>
       <c r="B49" t="n">
-        <v>0.947</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.86</v>
+        <v>0.852</v>
       </c>
       <c r="D49" t="n">
-        <v>0.796</v>
+        <v>0.788</v>
       </c>
       <c r="E49" t="n">
-        <v>0.751</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="50">
@@ -2214,16 +2214,16 @@
         <v>-350</v>
       </c>
       <c r="B50" t="n">
-        <v>0.955</v>
+        <v>0.95</v>
       </c>
       <c r="C50" t="n">
-        <v>0.874</v>
+        <v>0.864</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="E50" t="n">
-        <v>0.763</v>
+        <v>0.756</v>
       </c>
     </row>
     <row r="51">
@@ -2231,16 +2231,16 @@
         <v>-400</v>
       </c>
       <c r="B51" t="n">
-        <v>0.977</v>
+        <v>0.973</v>
       </c>
       <c r="C51" t="n">
-        <v>0.924</v>
+        <v>0.913</v>
       </c>
       <c r="D51" t="n">
-        <v>0.867</v>
+        <v>0.853</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.804</v>
       </c>
     </row>
     <row r="52">
@@ -2248,16 +2248,16 @@
         <v>-450</v>
       </c>
       <c r="B52" t="n">
-        <v>0.986</v>
+        <v>0.983</v>
       </c>
       <c r="C52" t="n">
-        <v>0.951</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.906</v>
+        <v>0.892</v>
       </c>
       <c r="E52" t="n">
-        <v>0.861</v>
+        <v>0.846</v>
       </c>
     </row>
     <row r="53">
@@ -2265,16 +2265,16 @@
         <v>-500</v>
       </c>
       <c r="B53" t="n">
-        <v>0.991</v>
+        <v>0.989</v>
       </c>
       <c r="C53" t="n">
-        <v>0.966</v>
+        <v>0.959</v>
       </c>
       <c r="D53" t="n">
-        <v>0.931</v>
+        <v>0.92</v>
       </c>
       <c r="E53" t="n">
-        <v>0.893</v>
+        <v>0.879</v>
       </c>
     </row>
   </sheetData>
@@ -2334,10 +2334,10 @@
         <v>0.991</v>
       </c>
       <c r="D2" t="n">
-        <v>0.979</v>
+        <v>0.98</v>
       </c>
       <c r="E2" t="n">
-        <v>0.964</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="3">
@@ -2348,13 +2348,13 @@
         <v>0.997</v>
       </c>
       <c r="C3" t="n">
-        <v>0.986</v>
+        <v>0.987</v>
       </c>
       <c r="D3" t="n">
-        <v>0.97</v>
+        <v>0.971</v>
       </c>
       <c r="E3" t="n">
-        <v>0.947</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4">
@@ -2362,16 +2362,16 @@
         <v>300</v>
       </c>
       <c r="B4" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="C4" t="n">
-        <v>0.977</v>
+        <v>0.979</v>
       </c>
       <c r="D4" t="n">
-        <v>0.95</v>
+        <v>0.954</v>
       </c>
       <c r="E4" t="n">
-        <v>0.915</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="5">
@@ -2379,16 +2379,16 @@
         <v>250</v>
       </c>
       <c r="B5" t="n">
-        <v>0.992</v>
+        <v>0.993</v>
       </c>
       <c r="C5" t="n">
-        <v>0.969</v>
+        <v>0.972</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.885</v>
+        <v>0.897</v>
       </c>
     </row>
     <row r="6">
@@ -2396,16 +2396,16 @@
         <v>200</v>
       </c>
       <c r="B6" t="n">
-        <v>0.988</v>
+        <v>0.99</v>
       </c>
       <c r="C6" t="n">
-        <v>0.954</v>
+        <v>0.96</v>
       </c>
       <c r="D6" t="n">
-        <v>0.902</v>
+        <v>0.914</v>
       </c>
       <c r="E6" t="n">
-        <v>0.836</v>
+        <v>0.856</v>
       </c>
     </row>
     <row r="7">
@@ -2413,16 +2413,16 @@
         <v>180</v>
       </c>
       <c r="B7" t="n">
-        <v>0.986</v>
+        <v>0.988</v>
       </c>
       <c r="C7" t="n">
-        <v>0.945</v>
+        <v>0.952</v>
       </c>
       <c r="D7" t="n">
-        <v>0.883</v>
+        <v>0.898</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="8">
@@ -2430,16 +2430,16 @@
         <v>160</v>
       </c>
       <c r="B8" t="n">
-        <v>0.983</v>
+        <v>0.985</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.858</v>
+        <v>0.878</v>
       </c>
       <c r="E8" t="n">
-        <v>0.769</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="9">
@@ -2447,16 +2447,16 @@
         <v>140</v>
       </c>
       <c r="B9" t="n">
-        <v>0.978</v>
+        <v>0.981</v>
       </c>
       <c r="C9" t="n">
-        <v>0.915</v>
+        <v>0.928</v>
       </c>
       <c r="D9" t="n">
-        <v>0.824</v>
+        <v>0.85</v>
       </c>
       <c r="E9" t="n">
-        <v>0.72</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="10">
@@ -2464,16 +2464,16 @@
         <v>120</v>
       </c>
       <c r="B10" t="n">
-        <v>0.971</v>
+        <v>0.976</v>
       </c>
       <c r="C10" t="n">
-        <v>0.89</v>
+        <v>0.908</v>
       </c>
       <c r="D10" t="n">
-        <v>0.777</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>0.654</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="11">
@@ -2481,16 +2481,16 @@
         <v>100</v>
       </c>
       <c r="B11" t="n">
-        <v>0.959</v>
+        <v>0.966</v>
       </c>
       <c r="C11" t="n">
-        <v>0.85</v>
+        <v>0.876</v>
       </c>
       <c r="D11" t="n">
-        <v>0.707</v>
+        <v>0.753</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="12">
@@ -2498,16 +2498,16 @@
         <v>80</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="C12" t="n">
-        <v>0.784</v>
+        <v>0.823</v>
       </c>
       <c r="D12" t="n">
-        <v>0.605</v>
+        <v>0.664</v>
       </c>
       <c r="E12" t="n">
-        <v>0.451</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="13">
@@ -2515,16 +2515,16 @@
         <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>0.896</v>
+        <v>0.918</v>
       </c>
       <c r="C13" t="n">
-        <v>0.669</v>
+        <v>0.725</v>
       </c>
       <c r="D13" t="n">
-        <v>0.456</v>
+        <v>0.525</v>
       </c>
       <c r="E13" t="n">
-        <v>0.311</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="14">
@@ -2532,16 +2532,16 @@
         <v>50</v>
       </c>
       <c r="B14" t="n">
-        <v>0.857</v>
+        <v>0.886</v>
       </c>
       <c r="C14" t="n">
-        <v>0.579</v>
+        <v>0.646</v>
       </c>
       <c r="D14" t="n">
-        <v>0.363</v>
+        <v>0.431</v>
       </c>
       <c r="E14" t="n">
-        <v>0.238</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="15">
@@ -2549,16 +2549,16 @@
         <v>40</v>
       </c>
       <c r="B15" t="n">
-        <v>0.792</v>
+        <v>0.834</v>
       </c>
       <c r="C15" t="n">
-        <v>0.461</v>
+        <v>0.534</v>
       </c>
       <c r="D15" t="n">
-        <v>0.264</v>
+        <v>0.323</v>
       </c>
       <c r="E15" t="n">
-        <v>0.166</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="16">
@@ -2566,16 +2566,16 @@
         <v>30</v>
       </c>
       <c r="B16" t="n">
-        <v>0.675</v>
+        <v>0.736</v>
       </c>
       <c r="C16" t="n">
-        <v>0.317</v>
+        <v>0.384</v>
       </c>
       <c r="D16" t="n">
-        <v>0.167</v>
+        <v>0.21</v>
       </c>
       <c r="E16" t="n">
-        <v>0.101</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="17">
@@ -2583,16 +2583,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="n">
-        <v>0.465</v>
+        <v>0.542</v>
       </c>
       <c r="C17" t="n">
-        <v>0.168</v>
+        <v>0.212</v>
       </c>
       <c r="D17" t="n">
-        <v>0.082</v>
+        <v>0.106</v>
       </c>
       <c r="E17" t="n">
-        <v>0.048</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="18">
@@ -2600,16 +2600,16 @@
         <v>10</v>
       </c>
       <c r="B18" t="n">
-        <v>0.169</v>
+        <v>0.214</v>
       </c>
       <c r="C18" t="n">
-        <v>0.048</v>
+        <v>0.063</v>
       </c>
       <c r="D18" t="n">
-        <v>0.022</v>
+        <v>0.029</v>
       </c>
       <c r="E18" t="n">
-        <v>0.012</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="19">
@@ -2634,16 +2634,16 @@
         <v>-10</v>
       </c>
       <c r="B20" t="n">
-        <v>0.168</v>
+        <v>0.213</v>
       </c>
       <c r="C20" t="n">
-        <v>0.048</v>
+        <v>0.063</v>
       </c>
       <c r="D20" t="n">
-        <v>0.022</v>
+        <v>0.029</v>
       </c>
       <c r="E20" t="n">
-        <v>0.012</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="21">
@@ -2651,16 +2651,16 @@
         <v>-20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.464</v>
+        <v>0.539</v>
       </c>
       <c r="C21" t="n">
-        <v>0.167</v>
+        <v>0.211</v>
       </c>
       <c r="D21" t="n">
-        <v>0.082</v>
+        <v>0.106</v>
       </c>
       <c r="E21" t="n">
-        <v>0.048</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="22">
@@ -2668,16 +2668,16 @@
         <v>-30</v>
       </c>
       <c r="B22" t="n">
-        <v>0.673</v>
+        <v>0.732</v>
       </c>
       <c r="C22" t="n">
-        <v>0.314</v>
+        <v>0.379</v>
       </c>
       <c r="D22" t="n">
-        <v>0.166</v>
+        <v>0.208</v>
       </c>
       <c r="E22" t="n">
-        <v>0.101</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="23">
@@ -2685,16 +2685,16 @@
         <v>-40</v>
       </c>
       <c r="B23" t="n">
-        <v>0.787</v>
+        <v>0.828</v>
       </c>
       <c r="C23" t="n">
-        <v>0.455</v>
+        <v>0.524</v>
       </c>
       <c r="D23" t="n">
-        <v>0.26</v>
+        <v>0.317</v>
       </c>
       <c r="E23" t="n">
-        <v>0.164</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="24">
@@ -2702,16 +2702,16 @@
         <v>-50</v>
       </c>
       <c r="B24" t="n">
-        <v>0.852</v>
+        <v>0.879</v>
       </c>
       <c r="C24" t="n">
-        <v>0.569</v>
+        <v>0.63</v>
       </c>
       <c r="D24" t="n">
-        <v>0.355</v>
+        <v>0.418</v>
       </c>
       <c r="E24" t="n">
-        <v>0.233</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="25">
@@ -2719,16 +2719,16 @@
         <v>-60</v>
       </c>
       <c r="B25" t="n">
-        <v>0.89</v>
+        <v>0.908</v>
       </c>
       <c r="C25" t="n">
-        <v>0.654</v>
+        <v>0.704</v>
       </c>
       <c r="D25" t="n">
-        <v>0.442</v>
+        <v>0.504</v>
       </c>
       <c r="E25" t="n">
-        <v>0.302</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="26">
@@ -2736,16 +2736,16 @@
         <v>-80</v>
       </c>
       <c r="B26" t="n">
-        <v>0.929</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.761</v>
+        <v>0.788</v>
       </c>
       <c r="D26" t="n">
-        <v>0.577</v>
+        <v>0.623</v>
       </c>
       <c r="E26" t="n">
-        <v>0.429</v>
+        <v>0.483</v>
       </c>
     </row>
     <row r="27">
@@ -2753,16 +2753,16 @@
         <v>-100</v>
       </c>
       <c r="B27" t="n">
-        <v>0.946</v>
+        <v>0.948</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.826</v>
       </c>
       <c r="D27" t="n">
-        <v>0.662</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>0.525</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="28">
@@ -2770,16 +2770,16 @@
         <v>-120</v>
       </c>
       <c r="B28" t="n">
-        <v>0.953</v>
+        <v>0.95</v>
       </c>
       <c r="C28" t="n">
-        <v>0.841</v>
+        <v>0.84</v>
       </c>
       <c r="D28" t="n">
-        <v>0.711</v>
+        <v>0.724</v>
       </c>
       <c r="E28" t="n">
-        <v>0.591</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="29">
@@ -2787,16 +2787,16 @@
         <v>-140</v>
       </c>
       <c r="B29" t="n">
-        <v>0.954</v>
+        <v>0.947</v>
       </c>
       <c r="C29" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="D29" t="n">
-        <v>0.737</v>
+        <v>0.738</v>
       </c>
       <c r="E29" t="n">
-        <v>0.633</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="30">
@@ -2804,16 +2804,16 @@
         <v>-160</v>
       </c>
       <c r="B30" t="n">
-        <v>0.95</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.847</v>
+        <v>0.83</v>
       </c>
       <c r="D30" t="n">
-        <v>0.746</v>
+        <v>0.74</v>
       </c>
       <c r="E30" t="n">
-        <v>0.657</v>
+        <v>0.666</v>
       </c>
     </row>
     <row r="31">
@@ -2821,16 +2821,16 @@
         <v>-170</v>
       </c>
       <c r="B31" t="n">
-        <v>0.945</v>
+        <v>0.931</v>
       </c>
       <c r="C31" t="n">
-        <v>0.841</v>
+        <v>0.822</v>
       </c>
       <c r="D31" t="n">
-        <v>0.746</v>
+        <v>0.738</v>
       </c>
       <c r="E31" t="n">
-        <v>0.665</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="32">
@@ -2838,16 +2838,16 @@
         <v>-180</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.923</v>
       </c>
       <c r="C32" t="n">
-        <v>0.833</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.744</v>
+        <v>0.734</v>
       </c>
       <c r="E32" t="n">
-        <v>0.67</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="33">
@@ -2855,16 +2855,16 @@
         <v>-190</v>
       </c>
       <c r="B33" t="n">
-        <v>0.93</v>
+        <v>0.913</v>
       </c>
       <c r="C33" t="n">
-        <v>0.823</v>
+        <v>0.802</v>
       </c>
       <c r="D33" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="E33" t="n">
-        <v>0.674</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="34">
@@ -2872,16 +2872,16 @@
         <v>-200</v>
       </c>
       <c r="B34" t="n">
-        <v>0.919</v>
+        <v>0.9</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="D34" t="n">
-        <v>0.735</v>
+        <v>0.725</v>
       </c>
       <c r="E34" t="n">
-        <v>0.676</v>
+        <v>0.678</v>
       </c>
     </row>
     <row r="35">
@@ -2889,16 +2889,16 @@
         <v>-210</v>
       </c>
       <c r="B35" t="n">
-        <v>0.905</v>
+        <v>0.887</v>
       </c>
       <c r="C35" t="n">
-        <v>0.797</v>
+        <v>0.779</v>
       </c>
       <c r="D35" t="n">
-        <v>0.73</v>
+        <v>0.721</v>
       </c>
       <c r="E35" t="n">
-        <v>0.677</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="36">
@@ -2906,16 +2906,16 @@
         <v>-220</v>
       </c>
       <c r="B36" t="n">
-        <v>0.888</v>
+        <v>0.872</v>
       </c>
       <c r="C36" t="n">
-        <v>0.784</v>
+        <v>0.769</v>
       </c>
       <c r="D36" t="n">
-        <v>0.725</v>
+        <v>0.718</v>
       </c>
       <c r="E36" t="n">
-        <v>0.679</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="37">
@@ -2923,16 +2923,16 @@
         <v>-230</v>
       </c>
       <c r="B37" t="n">
-        <v>0.868</v>
+        <v>0.859</v>
       </c>
       <c r="C37" t="n">
-        <v>0.771</v>
+        <v>0.761</v>
       </c>
       <c r="D37" t="n">
-        <v>0.72</v>
+        <v>0.715</v>
       </c>
       <c r="E37" t="n">
-        <v>0.68</v>
+        <v>0.681</v>
       </c>
     </row>
     <row r="38">
@@ -2943,13 +2943,13 @@
         <v>0.849</v>
       </c>
       <c r="C38" t="n">
-        <v>0.761</v>
+        <v>0.756</v>
       </c>
       <c r="D38" t="n">
-        <v>0.717</v>
+        <v>0.714</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.6830000000000001</v>
       </c>
     </row>
     <row r="39">
@@ -2957,16 +2957,16 @@
         <v>-250</v>
       </c>
       <c r="B39" t="n">
-        <v>0.834</v>
+        <v>0.844</v>
       </c>
       <c r="C39" t="n">
         <v>0.754</v>
       </c>
       <c r="D39" t="n">
-        <v>0.716</v>
+        <v>0.715</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.6860000000000001</v>
       </c>
     </row>
     <row r="40">
@@ -2974,16 +2974,16 @@
         <v>-260</v>
       </c>
       <c r="B40" t="n">
-        <v>0.829</v>
+        <v>0.846</v>
       </c>
       <c r="C40" t="n">
-        <v>0.753</v>
+        <v>0.756</v>
       </c>
       <c r="D40" t="n">
-        <v>0.718</v>
+        <v>0.717</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -2991,16 +2991,16 @@
         <v>-266</v>
       </c>
       <c r="B41" t="n">
-        <v>0.831</v>
+        <v>0.85</v>
       </c>
       <c r="C41" t="n">
-        <v>0.755</v>
+        <v>0.759</v>
       </c>
       <c r="D41" t="n">
-        <v>0.72</v>
+        <v>0.719</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6919999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3008,16 +3008,16 @@
         <v>-270</v>
       </c>
       <c r="B42" t="n">
-        <v>0.835</v>
+        <v>0.854</v>
       </c>
       <c r="C42" t="n">
-        <v>0.757</v>
+        <v>0.761</v>
       </c>
       <c r="D42" t="n">
         <v>0.721</v>
       </c>
       <c r="E42" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.694</v>
       </c>
     </row>
     <row r="43">
@@ -3025,16 +3025,16 @@
         <v>-280</v>
       </c>
       <c r="B43" t="n">
-        <v>0.851</v>
+        <v>0.867</v>
       </c>
       <c r="C43" t="n">
-        <v>0.766</v>
+        <v>0.77</v>
       </c>
       <c r="D43" t="n">
         <v>0.728</v>
       </c>
       <c r="E43" t="n">
-        <v>0.698</v>
+        <v>0.699</v>
       </c>
     </row>
     <row r="44">
@@ -3042,16 +3042,16 @@
         <v>-290</v>
       </c>
       <c r="B44" t="n">
-        <v>0.871</v>
+        <v>0.882</v>
       </c>
       <c r="C44" t="n">
-        <v>0.779</v>
+        <v>0.782</v>
       </c>
       <c r="D44" t="n">
-        <v>0.736</v>
+        <v>0.735</v>
       </c>
       <c r="E44" t="n">
-        <v>0.705</v>
+        <v>0.706</v>
       </c>
     </row>
     <row r="45">
@@ -3059,16 +3059,16 @@
         <v>-300</v>
       </c>
       <c r="B45" t="n">
-        <v>0.891</v>
+        <v>0.897</v>
       </c>
       <c r="C45" t="n">
         <v>0.795</v>
       </c>
       <c r="D45" t="n">
-        <v>0.747</v>
+        <v>0.745</v>
       </c>
       <c r="E45" t="n">
-        <v>0.714</v>
+        <v>0.713</v>
       </c>
     </row>
     <row r="46">
@@ -3076,16 +3076,16 @@
         <v>-310</v>
       </c>
       <c r="B46" t="n">
-        <v>0.91</v>
+        <v>0.911</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.759</v>
+        <v>0.755</v>
       </c>
       <c r="E46" t="n">
-        <v>0.723</v>
+        <v>0.721</v>
       </c>
     </row>
     <row r="47">
@@ -3093,16 +3093,16 @@
         <v>-320</v>
       </c>
       <c r="B47" t="n">
-        <v>0.925</v>
+        <v>0.923</v>
       </c>
       <c r="C47" t="n">
-        <v>0.829</v>
+        <v>0.824</v>
       </c>
       <c r="D47" t="n">
-        <v>0.771</v>
+        <v>0.766</v>
       </c>
       <c r="E47" t="n">
-        <v>0.733</v>
+        <v>0.729</v>
       </c>
     </row>
     <row r="48">
@@ -3110,16 +3110,16 @@
         <v>-330</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.846</v>
+        <v>0.839</v>
       </c>
       <c r="D48" t="n">
-        <v>0.785</v>
+        <v>0.777</v>
       </c>
       <c r="E48" t="n">
-        <v>0.743</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="49">
@@ -3127,16 +3127,16 @@
         <v>-340</v>
       </c>
       <c r="B49" t="n">
-        <v>0.947</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.861</v>
+        <v>0.852</v>
       </c>
       <c r="D49" t="n">
-        <v>0.798</v>
+        <v>0.789</v>
       </c>
       <c r="E49" t="n">
-        <v>0.754</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="50">
@@ -3144,16 +3144,16 @@
         <v>-350</v>
       </c>
       <c r="B50" t="n">
-        <v>0.955</v>
+        <v>0.95</v>
       </c>
       <c r="C50" t="n">
-        <v>0.875</v>
+        <v>0.865</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.801</v>
       </c>
       <c r="E50" t="n">
-        <v>0.765</v>
+        <v>0.757</v>
       </c>
     </row>
     <row r="51">
@@ -3161,16 +3161,16 @@
         <v>-400</v>
       </c>
       <c r="B51" t="n">
-        <v>0.977</v>
+        <v>0.973</v>
       </c>
       <c r="C51" t="n">
-        <v>0.925</v>
+        <v>0.914</v>
       </c>
       <c r="D51" t="n">
-        <v>0.868</v>
+        <v>0.854</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.805</v>
       </c>
     </row>
     <row r="52">
@@ -3178,16 +3178,16 @@
         <v>-450</v>
       </c>
       <c r="B52" t="n">
-        <v>0.986</v>
+        <v>0.983</v>
       </c>
       <c r="C52" t="n">
-        <v>0.952</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.907</v>
+        <v>0.893</v>
       </c>
       <c r="E52" t="n">
-        <v>0.862</v>
+        <v>0.846</v>
       </c>
     </row>
     <row r="53">
@@ -3195,16 +3195,16 @@
         <v>-500</v>
       </c>
       <c r="B53" t="n">
-        <v>0.991</v>
+        <v>0.989</v>
       </c>
       <c r="C53" t="n">
-        <v>0.966</v>
+        <v>0.959</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="E53" t="n">
-        <v>0.894</v>
+        <v>0.879</v>
       </c>
     </row>
   </sheetData>
@@ -3267,7 +3267,7 @@
         <v>0.98</v>
       </c>
       <c r="E2" t="n">
-        <v>0.964</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="3">
@@ -3278,13 +3278,13 @@
         <v>0.997</v>
       </c>
       <c r="C3" t="n">
-        <v>0.986</v>
+        <v>0.987</v>
       </c>
       <c r="D3" t="n">
-        <v>0.97</v>
+        <v>0.971</v>
       </c>
       <c r="E3" t="n">
-        <v>0.948</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4">
@@ -3292,16 +3292,16 @@
         <v>300</v>
       </c>
       <c r="B4" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
       <c r="C4" t="n">
-        <v>0.978</v>
+        <v>0.979</v>
       </c>
       <c r="D4" t="n">
-        <v>0.951</v>
+        <v>0.954</v>
       </c>
       <c r="E4" t="n">
-        <v>0.915</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="5">
@@ -3309,16 +3309,16 @@
         <v>250</v>
       </c>
       <c r="B5" t="n">
-        <v>0.992</v>
+        <v>0.993</v>
       </c>
       <c r="C5" t="n">
-        <v>0.969</v>
+        <v>0.972</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.886</v>
+        <v>0.897</v>
       </c>
     </row>
     <row r="6">
@@ -3326,16 +3326,16 @@
         <v>200</v>
       </c>
       <c r="B6" t="n">
-        <v>0.988</v>
+        <v>0.99</v>
       </c>
       <c r="C6" t="n">
-        <v>0.955</v>
+        <v>0.96</v>
       </c>
       <c r="D6" t="n">
-        <v>0.902</v>
+        <v>0.914</v>
       </c>
       <c r="E6" t="n">
-        <v>0.837</v>
+        <v>0.856</v>
       </c>
     </row>
     <row r="7">
@@ -3343,16 +3343,16 @@
         <v>180</v>
       </c>
       <c r="B7" t="n">
-        <v>0.986</v>
+        <v>0.988</v>
       </c>
       <c r="C7" t="n">
-        <v>0.945</v>
+        <v>0.952</v>
       </c>
       <c r="D7" t="n">
-        <v>0.883</v>
+        <v>0.899</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="8">
@@ -3360,16 +3360,16 @@
         <v>160</v>
       </c>
       <c r="B8" t="n">
-        <v>0.983</v>
+        <v>0.985</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.859</v>
+        <v>0.878</v>
       </c>
       <c r="E8" t="n">
-        <v>0.77</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="9">
@@ -3377,16 +3377,16 @@
         <v>140</v>
       </c>
       <c r="B9" t="n">
-        <v>0.978</v>
+        <v>0.981</v>
       </c>
       <c r="C9" t="n">
-        <v>0.915</v>
+        <v>0.928</v>
       </c>
       <c r="D9" t="n">
-        <v>0.825</v>
+        <v>0.851</v>
       </c>
       <c r="E9" t="n">
-        <v>0.721</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="10">
@@ -3394,16 +3394,16 @@
         <v>120</v>
       </c>
       <c r="B10" t="n">
-        <v>0.971</v>
+        <v>0.976</v>
       </c>
       <c r="C10" t="n">
-        <v>0.89</v>
+        <v>0.908</v>
       </c>
       <c r="D10" t="n">
-        <v>0.777</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>0.655</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="11">
@@ -3411,16 +3411,16 @@
         <v>100</v>
       </c>
       <c r="B11" t="n">
-        <v>0.959</v>
+        <v>0.967</v>
       </c>
       <c r="C11" t="n">
-        <v>0.85</v>
+        <v>0.876</v>
       </c>
       <c r="D11" t="n">
-        <v>0.708</v>
+        <v>0.754</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="12">
@@ -3428,16 +3428,16 @@
         <v>80</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.951</v>
       </c>
       <c r="C12" t="n">
-        <v>0.784</v>
+        <v>0.823</v>
       </c>
       <c r="D12" t="n">
-        <v>0.605</v>
+        <v>0.665</v>
       </c>
       <c r="E12" t="n">
-        <v>0.451</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="13">
@@ -3445,16 +3445,16 @@
         <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>0.896</v>
+        <v>0.918</v>
       </c>
       <c r="C13" t="n">
-        <v>0.669</v>
+        <v>0.726</v>
       </c>
       <c r="D13" t="n">
-        <v>0.456</v>
+        <v>0.526</v>
       </c>
       <c r="E13" t="n">
-        <v>0.311</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="14">
@@ -3462,16 +3462,16 @@
         <v>50</v>
       </c>
       <c r="B14" t="n">
-        <v>0.857</v>
+        <v>0.887</v>
       </c>
       <c r="C14" t="n">
-        <v>0.579</v>
+        <v>0.646</v>
       </c>
       <c r="D14" t="n">
-        <v>0.363</v>
+        <v>0.432</v>
       </c>
       <c r="E14" t="n">
-        <v>0.238</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="15">
@@ -3479,16 +3479,16 @@
         <v>40</v>
       </c>
       <c r="B15" t="n">
-        <v>0.792</v>
+        <v>0.834</v>
       </c>
       <c r="C15" t="n">
-        <v>0.461</v>
+        <v>0.534</v>
       </c>
       <c r="D15" t="n">
-        <v>0.264</v>
+        <v>0.323</v>
       </c>
       <c r="E15" t="n">
-        <v>0.166</v>
+        <v>0.209</v>
       </c>
     </row>
     <row r="16">
@@ -3496,16 +3496,16 @@
         <v>30</v>
       </c>
       <c r="B16" t="n">
-        <v>0.676</v>
+        <v>0.736</v>
       </c>
       <c r="C16" t="n">
-        <v>0.317</v>
+        <v>0.384</v>
       </c>
       <c r="D16" t="n">
-        <v>0.167</v>
+        <v>0.21</v>
       </c>
       <c r="E16" t="n">
-        <v>0.101</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="17">
@@ -3513,16 +3513,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="n">
-        <v>0.466</v>
+        <v>0.542</v>
       </c>
       <c r="C17" t="n">
-        <v>0.168</v>
+        <v>0.212</v>
       </c>
       <c r="D17" t="n">
-        <v>0.082</v>
+        <v>0.106</v>
       </c>
       <c r="E17" t="n">
-        <v>0.048</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="18">
@@ -3530,16 +3530,16 @@
         <v>10</v>
       </c>
       <c r="B18" t="n">
-        <v>0.169</v>
+        <v>0.214</v>
       </c>
       <c r="C18" t="n">
-        <v>0.048</v>
+        <v>0.063</v>
       </c>
       <c r="D18" t="n">
-        <v>0.022</v>
+        <v>0.029</v>
       </c>
       <c r="E18" t="n">
-        <v>0.012</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="19">
@@ -3564,16 +3564,16 @@
         <v>-10</v>
       </c>
       <c r="B20" t="n">
-        <v>0.169</v>
+        <v>0.213</v>
       </c>
       <c r="C20" t="n">
-        <v>0.048</v>
+        <v>0.063</v>
       </c>
       <c r="D20" t="n">
-        <v>0.022</v>
+        <v>0.029</v>
       </c>
       <c r="E20" t="n">
-        <v>0.012</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="21">
@@ -3581,16 +3581,16 @@
         <v>-20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.464</v>
+        <v>0.54</v>
       </c>
       <c r="C21" t="n">
-        <v>0.167</v>
+        <v>0.211</v>
       </c>
       <c r="D21" t="n">
-        <v>0.082</v>
+        <v>0.106</v>
       </c>
       <c r="E21" t="n">
-        <v>0.048</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="22">
@@ -3598,16 +3598,16 @@
         <v>-30</v>
       </c>
       <c r="B22" t="n">
-        <v>0.673</v>
+        <v>0.732</v>
       </c>
       <c r="C22" t="n">
-        <v>0.314</v>
+        <v>0.38</v>
       </c>
       <c r="D22" t="n">
-        <v>0.166</v>
+        <v>0.208</v>
       </c>
       <c r="E22" t="n">
-        <v>0.101</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="23">
@@ -3615,16 +3615,16 @@
         <v>-40</v>
       </c>
       <c r="B23" t="n">
-        <v>0.788</v>
+        <v>0.828</v>
       </c>
       <c r="C23" t="n">
-        <v>0.455</v>
+        <v>0.525</v>
       </c>
       <c r="D23" t="n">
-        <v>0.261</v>
+        <v>0.317</v>
       </c>
       <c r="E23" t="n">
-        <v>0.165</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="24">
@@ -3632,16 +3632,16 @@
         <v>-50</v>
       </c>
       <c r="B24" t="n">
-        <v>0.852</v>
+        <v>0.879</v>
       </c>
       <c r="C24" t="n">
-        <v>0.57</v>
+        <v>0.631</v>
       </c>
       <c r="D24" t="n">
-        <v>0.356</v>
+        <v>0.419</v>
       </c>
       <c r="E24" t="n">
-        <v>0.233</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="25">
@@ -3649,16 +3649,16 @@
         <v>-60</v>
       </c>
       <c r="B25" t="n">
-        <v>0.89</v>
+        <v>0.908</v>
       </c>
       <c r="C25" t="n">
-        <v>0.655</v>
+        <v>0.704</v>
       </c>
       <c r="D25" t="n">
-        <v>0.443</v>
+        <v>0.504</v>
       </c>
       <c r="E25" t="n">
-        <v>0.303</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="26">
@@ -3666,16 +3666,16 @@
         <v>-80</v>
       </c>
       <c r="B26" t="n">
-        <v>0.929</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>0.761</v>
+        <v>0.788</v>
       </c>
       <c r="D26" t="n">
-        <v>0.578</v>
+        <v>0.624</v>
       </c>
       <c r="E26" t="n">
-        <v>0.43</v>
+        <v>0.483</v>
       </c>
     </row>
     <row r="27">
@@ -3683,16 +3683,16 @@
         <v>-100</v>
       </c>
       <c r="B27" t="n">
-        <v>0.947</v>
+        <v>0.948</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.826</v>
       </c>
       <c r="D27" t="n">
-        <v>0.664</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>0.527</v>
+        <v>0.5679999999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3700,16 +3700,16 @@
         <v>-120</v>
       </c>
       <c r="B28" t="n">
-        <v>0.954</v>
+        <v>0.95</v>
       </c>
       <c r="C28" t="n">
-        <v>0.843</v>
+        <v>0.841</v>
       </c>
       <c r="D28" t="n">
-        <v>0.714</v>
+        <v>0.724</v>
       </c>
       <c r="E28" t="n">
-        <v>0.594</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="29">
@@ -3717,16 +3717,16 @@
         <v>-140</v>
       </c>
       <c r="B29" t="n">
-        <v>0.955</v>
+        <v>0.947</v>
       </c>
       <c r="C29" t="n">
-        <v>0.852</v>
+        <v>0.841</v>
       </c>
       <c r="D29" t="n">
-        <v>0.74</v>
+        <v>0.738</v>
       </c>
       <c r="E29" t="n">
-        <v>0.636</v>
+        <v>0.651</v>
       </c>
     </row>
     <row r="30">
@@ -3734,16 +3734,16 @@
         <v>-160</v>
       </c>
       <c r="B30" t="n">
-        <v>0.951</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="D30" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="E30" t="n">
-        <v>0.662</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="31">
@@ -3751,16 +3751,16 @@
         <v>-170</v>
       </c>
       <c r="B31" t="n">
-        <v>0.946</v>
+        <v>0.931</v>
       </c>
       <c r="C31" t="n">
-        <v>0.844</v>
+        <v>0.822</v>
       </c>
       <c r="D31" t="n">
-        <v>0.75</v>
+        <v>0.738</v>
       </c>
       <c r="E31" t="n">
-        <v>0.67</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="32">
@@ -3768,13 +3768,13 @@
         <v>-180</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.923</v>
       </c>
       <c r="C32" t="n">
-        <v>0.837</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.749</v>
+        <v>0.734</v>
       </c>
       <c r="E32" t="n">
         <v>0.675</v>
@@ -3785,16 +3785,16 @@
         <v>-190</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.912</v>
       </c>
       <c r="C33" t="n">
-        <v>0.827</v>
+        <v>0.802</v>
       </c>
       <c r="D33" t="n">
-        <v>0.745</v>
+        <v>0.73</v>
       </c>
       <c r="E33" t="n">
-        <v>0.679</v>
+        <v>0.677</v>
       </c>
     </row>
     <row r="34">
@@ -3802,16 +3802,16 @@
         <v>-200</v>
       </c>
       <c r="B34" t="n">
-        <v>0.921</v>
+        <v>0.9</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="D34" t="n">
-        <v>0.741</v>
+        <v>0.725</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.678</v>
       </c>
     </row>
     <row r="35">
@@ -3819,16 +3819,16 @@
         <v>-210</v>
       </c>
       <c r="B35" t="n">
-        <v>0.907</v>
+        <v>0.886</v>
       </c>
       <c r="C35" t="n">
-        <v>0.803</v>
+        <v>0.779</v>
       </c>
       <c r="D35" t="n">
-        <v>0.736</v>
+        <v>0.721</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="36">
@@ -3836,16 +3836,16 @@
         <v>-220</v>
       </c>
       <c r="B36" t="n">
-        <v>0.891</v>
+        <v>0.872</v>
       </c>
       <c r="C36" t="n">
-        <v>0.79</v>
+        <v>0.769</v>
       </c>
       <c r="D36" t="n">
-        <v>0.731</v>
+        <v>0.718</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="37">
@@ -3853,16 +3853,16 @@
         <v>-230</v>
       </c>
       <c r="B37" t="n">
-        <v>0.872</v>
+        <v>0.858</v>
       </c>
       <c r="C37" t="n">
-        <v>0.777</v>
+        <v>0.761</v>
       </c>
       <c r="D37" t="n">
-        <v>0.727</v>
+        <v>0.715</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.6820000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -3870,16 +3870,16 @@
         <v>-240</v>
       </c>
       <c r="B38" t="n">
-        <v>0.854</v>
+        <v>0.848</v>
       </c>
       <c r="C38" t="n">
-        <v>0.768</v>
+        <v>0.756</v>
       </c>
       <c r="D38" t="n">
-        <v>0.725</v>
+        <v>0.714</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="39">
@@ -3887,16 +3887,16 @@
         <v>-250</v>
       </c>
       <c r="B39" t="n">
-        <v>0.839</v>
+        <v>0.844</v>
       </c>
       <c r="C39" t="n">
-        <v>0.762</v>
+        <v>0.754</v>
       </c>
       <c r="D39" t="n">
-        <v>0.724</v>
+        <v>0.715</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6870000000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3904,16 +3904,16 @@
         <v>-260</v>
       </c>
       <c r="B40" t="n">
-        <v>0.834</v>
+        <v>0.846</v>
       </c>
       <c r="C40" t="n">
-        <v>0.76</v>
+        <v>0.756</v>
       </c>
       <c r="D40" t="n">
-        <v>0.725</v>
+        <v>0.718</v>
       </c>
       <c r="E40" t="n">
-        <v>0.695</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3921,16 +3921,16 @@
         <v>-266</v>
       </c>
       <c r="B41" t="n">
-        <v>0.837</v>
+        <v>0.851</v>
       </c>
       <c r="C41" t="n">
-        <v>0.762</v>
+        <v>0.759</v>
       </c>
       <c r="D41" t="n">
-        <v>0.727</v>
+        <v>0.72</v>
       </c>
       <c r="E41" t="n">
-        <v>0.698</v>
+        <v>0.6929999999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3938,16 +3938,16 @@
         <v>-270</v>
       </c>
       <c r="B42" t="n">
-        <v>0.84</v>
+        <v>0.855</v>
       </c>
       <c r="C42" t="n">
-        <v>0.764</v>
+        <v>0.762</v>
       </c>
       <c r="D42" t="n">
-        <v>0.729</v>
+        <v>0.722</v>
       </c>
       <c r="E42" t="n">
-        <v>0.7</v>
+        <v>0.695</v>
       </c>
     </row>
     <row r="43">
@@ -3955,16 +3955,16 @@
         <v>-280</v>
       </c>
       <c r="B43" t="n">
-        <v>0.855</v>
+        <v>0.868</v>
       </c>
       <c r="C43" t="n">
-        <v>0.773</v>
+        <v>0.772</v>
       </c>
       <c r="D43" t="n">
-        <v>0.735</v>
+        <v>0.728</v>
       </c>
       <c r="E43" t="n">
-        <v>0.706</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="44">
@@ -3972,16 +3972,16 @@
         <v>-290</v>
       </c>
       <c r="B44" t="n">
-        <v>0.875</v>
+        <v>0.883</v>
       </c>
       <c r="C44" t="n">
-        <v>0.786</v>
+        <v>0.783</v>
       </c>
       <c r="D44" t="n">
-        <v>0.743</v>
+        <v>0.736</v>
       </c>
       <c r="E44" t="n">
-        <v>0.713</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="45">
@@ -3989,16 +3989,16 @@
         <v>-300</v>
       </c>
       <c r="B45" t="n">
-        <v>0.895</v>
+        <v>0.898</v>
       </c>
       <c r="C45" t="n">
-        <v>0.801</v>
+        <v>0.797</v>
       </c>
       <c r="D45" t="n">
-        <v>0.754</v>
+        <v>0.746</v>
       </c>
       <c r="E45" t="n">
-        <v>0.721</v>
+        <v>0.714</v>
       </c>
     </row>
     <row r="46">
@@ -4009,13 +4009,13 @@
         <v>0.912</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.765</v>
+        <v>0.756</v>
       </c>
       <c r="E46" t="n">
-        <v>0.73</v>
+        <v>0.722</v>
       </c>
     </row>
     <row r="47">
@@ -4023,16 +4023,16 @@
         <v>-320</v>
       </c>
       <c r="B47" t="n">
-        <v>0.927</v>
+        <v>0.925</v>
       </c>
       <c r="C47" t="n">
-        <v>0.834</v>
+        <v>0.826</v>
       </c>
       <c r="D47" t="n">
-        <v>0.778</v>
+        <v>0.767</v>
       </c>
       <c r="E47" t="n">
-        <v>0.739</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="48">
@@ -4040,16 +4040,16 @@
         <v>-330</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>0.85</v>
+        <v>0.841</v>
       </c>
       <c r="D48" t="n">
-        <v>0.79</v>
+        <v>0.779</v>
       </c>
       <c r="E48" t="n">
-        <v>0.75</v>
+        <v>0.739</v>
       </c>
     </row>
     <row r="49">
@@ -4057,16 +4057,16 @@
         <v>-340</v>
       </c>
       <c r="B49" t="n">
-        <v>0.949</v>
+        <v>0.944</v>
       </c>
       <c r="C49" t="n">
-        <v>0.865</v>
+        <v>0.854</v>
       </c>
       <c r="D49" t="n">
-        <v>0.804</v>
+        <v>0.791</v>
       </c>
       <c r="E49" t="n">
-        <v>0.76</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="50">
@@ -4074,16 +4074,16 @@
         <v>-350</v>
       </c>
       <c r="B50" t="n">
-        <v>0.956</v>
+        <v>0.951</v>
       </c>
       <c r="C50" t="n">
-        <v>0.879</v>
+        <v>0.867</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.803</v>
       </c>
       <c r="E50" t="n">
-        <v>0.771</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="51">
@@ -4091,16 +4091,16 @@
         <v>-400</v>
       </c>
       <c r="B51" t="n">
-        <v>0.978</v>
+        <v>0.974</v>
       </c>
       <c r="C51" t="n">
-        <v>0.927</v>
+        <v>0.915</v>
       </c>
       <c r="D51" t="n">
-        <v>0.871</v>
+        <v>0.856</v>
       </c>
       <c r="E51" t="n">
-        <v>0.823</v>
+        <v>0.8070000000000001</v>
       </c>
     </row>
     <row r="52">
@@ -4108,16 +4108,16 @@
         <v>-450</v>
       </c>
       <c r="B52" t="n">
-        <v>0.987</v>
+        <v>0.984</v>
       </c>
       <c r="C52" t="n">
-        <v>0.953</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.909</v>
+        <v>0.895</v>
       </c>
       <c r="E52" t="n">
-        <v>0.865</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="53">
@@ -4125,16 +4125,16 @@
         <v>-500</v>
       </c>
       <c r="B53" t="n">
-        <v>0.991</v>
+        <v>0.989</v>
       </c>
       <c r="C53" t="n">
-        <v>0.967</v>
+        <v>0.96</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9340000000000001</v>
+        <v>0.921</v>
       </c>
       <c r="E53" t="n">
-        <v>0.896</v>
+        <v>0.881</v>
       </c>
     </row>
   </sheetData>
